--- a/TestData/CompetitionTask_001.xlsx
+++ b/TestData/CompetitionTask_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Auckland Institute of Studies\Documents\Tanya\Jobs\Industry connect\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\IndustryConnect\Week14CompetitionTaskProjectMars\Week14CompetitionTaskProjectMars\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBFF13-D6D2-4C2D-B81A-1A56724674BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DA076-81DF-4C26-81E4-B704015A73EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD145866-5743-4F78-9D6B-E49BC532AC18}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FD145866-5743-4F78-9D6B-E49BC532AC18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,14 +62,6 @@
     <t>Actual Results</t>
   </si>
   <si>
-    <t>1 open this URL http://localhost:5001/Home
-Tester must have exiting user on the skill website
-2 Login to Skill website
-3 click on user name dropdown
-4 select go to profile
-5 select education tab</t>
-  </si>
-  <si>
     <t>URL http://localhost:5001/Home
 username: por.asava02@gmail.com
 Password: TananyaHappy</t>
@@ -93,14 +85,6 @@
   </si>
   <si>
     <t>It should show error 'Education entry successfully removed'</t>
-  </si>
-  <si>
-    <t>1 open this URL http://localhost:5001/Home
-Tester must have exiting user on the skill website
-2 Login to Skill website
-3 click on user name dropdown
-4 select go to profile
-5 select certification tab</t>
   </si>
   <si>
     <t>1 select add new
@@ -449,6 +433,22 @@
   </si>
   <si>
     <t>TS_400</t>
+  </si>
+  <si>
+    <t>1 open this URL http://localhost:5001/Home
+Testers must have a user account on the skill website.
+2 Login to Skill website
+3 click on user name dropdown
+4 select go to profile
+5 select education tab</t>
+  </si>
+  <si>
+    <t>1 open this URL http://localhost:5001/Home
+Testers must have a user account on the skill website.
+2 Login to Skill website
+3 click on user name dropdown
+4 select go to profile
+5 select certification tab</t>
   </si>
 </sst>
 </file>
@@ -584,6 +584,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -598,9 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,9 +919,9 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,10 +939,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -971,806 +971,806 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="H15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="H16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="H17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="H18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="H19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="8" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="H26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="6" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="H29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="H32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H33" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
